--- a/docs/일정.xlsx
+++ b/docs/일정.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\고선우 대학\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghk01\Documents\대학\4학년\종합설계\KPUFinalGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34BED5-353D-4672-AEA8-A3F8298AC2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>1월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +73,6 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,8 +115,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -195,21 +203,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thick">
         <color auto="1"/>
@@ -247,19 +240,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -276,21 +256,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -359,19 +324,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -447,23 +399,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -476,7 +415,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -486,10 +425,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -502,89 +441,216 @@
       <left style="thick">
         <color auto="1"/>
       </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,86 +659,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -955,11 +959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -999,376 +1003,442 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="E4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="44"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8" s="44"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="20"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="46"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="47"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="G13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="46"/>
-    </row>
-    <row r="18" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="47"/>
-    </row>
-    <row r="19" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="G19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="41"/>
-    </row>
-    <row r="20" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="42"/>
-    </row>
-    <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="46"/>
-    </row>
-    <row r="22" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="47"/>
-    </row>
-    <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="46"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="48"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="G26" s="18"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G27" s="18"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G28" s="18"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G29" s="18"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G30" s="18"/>
+      <c r="G30" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="G2:G23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G23">
     <sortCondition ref="G2"/>
   </sortState>
-  <mergeCells count="51">
+  <mergeCells count="84">
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
@@ -1385,41 +1455,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
